--- a/es/es-msgs-091419-ip.xlsx
+++ b/es/es-msgs-091419-ip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanp/Downloads/translations/es/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D464CE-EA76-814B-AF29-4E34DEC9E324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221BB70-652E-5D47-A495-6B2F4EB94F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="2200" windowWidth="46520" windowHeight="24240" xr2:uid="{3711920B-E8A7-6546-AACB-801C347865BB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19560" xr2:uid="{3711920B-E8A7-6546-AACB-801C347865BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE7EB5-FAB2-2443-9AD3-48C1DC6DC8DD}">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
